--- a/layers.xlsx
+++ b/layers.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Eslam\Sprints\AirConditioner\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C9E1ACFF-54E9-4467-8653-67F88450C8B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46265442-EDC9-41BC-99E7-4CD629332CD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{1CBFBA79-19AC-44A5-BE20-5D8108F32FA8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="40">
   <si>
     <t>MICROCONTROLLER</t>
   </si>
@@ -82,13 +82,85 @@
   </si>
   <si>
     <t>Omar</t>
+  </si>
+  <si>
+    <t>void App_Init();</t>
+  </si>
+  <si>
+    <t>/*Init ECUAL*/</t>
+  </si>
+  <si>
+    <t>uint8_t App_GetUserInput();</t>
+  </si>
+  <si>
+    <t>/*Get desired temperature from keypad (integer)*/</t>
+  </si>
+  <si>
+    <t>/* limits on inputs &gt; 15 , &lt;30*/</t>
+  </si>
+  <si>
+    <t>/*read from keypad until = is pressed*/</t>
+  </si>
+  <si>
+    <t>uint8_t App_MeasureCurrentTemp();</t>
+  </si>
+  <si>
+    <t>/*Get current sensor readings*/</t>
+  </si>
+  <si>
+    <t>/*get sensor readings (current temprature) */</t>
+  </si>
+  <si>
+    <t>void App_AdjustTemp(uint8_t currentTemp ,uint8_t desired);</t>
+  </si>
+  <si>
+    <t>/*Adjust fan according to desired temp*/</t>
+  </si>
+  <si>
+    <t>APP Functions</t>
+  </si>
+  <si>
+    <t>LM35 FUNCTIONS</t>
+  </si>
+  <si>
+    <t>void Lm35_init(EN_SensorID_t SensorID);</t>
+  </si>
+  <si>
+    <t>/*init lm35 according to channel*/</t>
+  </si>
+  <si>
+    <t>ADC FUNCTIONS</t>
+  </si>
+  <si>
+    <t>void Adc_init(uint8_t channel , uint8_t prescalar);</t>
+  </si>
+  <si>
+    <t>void Adc_getReading(uint8_t channel);</t>
+  </si>
+  <si>
+    <t>/*set mode ,prescaler,channel*/</t>
+  </si>
+  <si>
+    <t>/*get adc reading from equivalent channel*/</t>
+  </si>
+  <si>
+    <t>Other modules imported from old data</t>
+  </si>
+  <si>
+    <t>uint8_t Lm35_GetTemp(EN_SensorID_t SensorID);         /*Get reading from lm35*/</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>IN PROGRESS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -96,8 +168,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -128,6 +214,36 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="9">
     <border>
@@ -233,30 +349,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -264,6 +360,52 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -578,99 +720,320 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2ADDC23F-9B09-41E0-865B-425D48960C31}">
-  <dimension ref="A4:H9"/>
+  <dimension ref="A1:U22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="A4:H8"/>
+      <selection activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="8" t="s">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="J1" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="K1" s="21"/>
+      <c r="L1" s="21"/>
+      <c r="M1" s="21"/>
+      <c r="N1" s="21"/>
+      <c r="O1" s="21"/>
+      <c r="P1" s="21"/>
+      <c r="Q1" s="21"/>
+      <c r="R1" s="21"/>
+      <c r="T1" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="U1" s="26"/>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="J3" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="K3" s="9"/>
+      <c r="L3" s="9"/>
+      <c r="N3" t="s">
+        <v>17</v>
+      </c>
+      <c r="T3" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="U3" s="27"/>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A4" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="F4" s="16" t="s">
+      <c r="B4" s="15"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="F4" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="17"/>
-      <c r="H4" s="16" t="s">
+      <c r="G4" s="9"/>
+      <c r="H4" s="8" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A5" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="7" t="s">
+      <c r="B5" s="11"/>
+      <c r="C5" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="5" t="s">
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="J5" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="K5" s="9"/>
+      <c r="L5" s="9"/>
+      <c r="N5" t="s">
+        <v>19</v>
+      </c>
+      <c r="T5" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="U5" s="27"/>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="F6" s="15" t="s">
+      <c r="B6" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="F6" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="15"/>
-      <c r="H6" s="15" t="s">
+      <c r="G6" s="7"/>
+      <c r="H6" s="7" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="11"/>
-      <c r="B7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="9" t="s">
+      <c r="N6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A7" s="3"/>
+      <c r="B7" s="25"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="N7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="D8" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F8" s="14" t="s">
+      <c r="F8" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="G8" s="13"/>
-      <c r="H8" s="13"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="10" t="s">
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A9" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="10"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="J9" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="K9" s="9"/>
+      <c r="L9" s="9"/>
+      <c r="M9" s="9"/>
+      <c r="N9" t="s">
+        <v>23</v>
+      </c>
+      <c r="T9" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="U9" s="27"/>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="N10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="J12" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="K12" s="9"/>
+      <c r="L12" s="9"/>
+      <c r="M12" s="9"/>
+      <c r="N12" t="s">
+        <v>26</v>
+      </c>
+      <c r="T12" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="U12" s="27"/>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="J13" s="18"/>
+      <c r="K13" s="18"/>
+      <c r="L13" s="18"/>
+      <c r="M13" s="18"/>
+      <c r="N13" s="18"/>
+      <c r="O13" s="18"/>
+      <c r="P13" s="18"/>
+      <c r="Q13" s="18"/>
+      <c r="R13" s="18"/>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="J14" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="K14" s="22"/>
+      <c r="L14" s="22"/>
+      <c r="M14" s="22"/>
+      <c r="N14" s="22"/>
+      <c r="O14" s="22"/>
+      <c r="P14" s="22"/>
+      <c r="Q14" s="22"/>
+      <c r="R14" s="22"/>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="J15" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="K15" s="16"/>
+      <c r="L15" s="16"/>
+      <c r="M15" s="16"/>
+      <c r="N15" s="16"/>
+      <c r="O15" t="s">
+        <v>30</v>
+      </c>
+      <c r="T15" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="U15" s="27"/>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="J16" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="K16" s="16"/>
+      <c r="L16" s="16"/>
+      <c r="M16" s="16"/>
+      <c r="N16" s="16"/>
+      <c r="O16" s="19"/>
+      <c r="P16" s="19"/>
+      <c r="Q16" s="19"/>
+      <c r="T16" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="U16" s="27"/>
+    </row>
+    <row r="17" spans="10:21" x14ac:dyDescent="0.3">
+      <c r="J17" s="18"/>
+      <c r="K17" s="18"/>
+      <c r="L17" s="18"/>
+      <c r="M17" s="18"/>
+      <c r="N17" s="18"/>
+      <c r="O17" s="18"/>
+      <c r="P17" s="18"/>
+      <c r="Q17" s="18"/>
+      <c r="R17" s="18"/>
+    </row>
+    <row r="18" spans="10:21" x14ac:dyDescent="0.3">
+      <c r="J18" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="K18" s="23"/>
+      <c r="L18" s="23"/>
+      <c r="M18" s="23"/>
+      <c r="N18" s="23"/>
+      <c r="O18" s="23"/>
+      <c r="P18" s="23"/>
+      <c r="Q18" s="23"/>
+      <c r="R18" s="23"/>
+    </row>
+    <row r="19" spans="10:21" x14ac:dyDescent="0.3">
+      <c r="J19" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="K19" s="17"/>
+      <c r="L19" s="17"/>
+      <c r="M19" s="17"/>
+      <c r="N19" s="17"/>
+      <c r="O19" t="s">
+        <v>34</v>
+      </c>
+      <c r="T19" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="U19" s="27"/>
+    </row>
+    <row r="20" spans="10:21" x14ac:dyDescent="0.3">
+      <c r="J20" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="K20" s="17"/>
+      <c r="L20" s="17"/>
+      <c r="M20" s="17"/>
+      <c r="N20" s="17"/>
+      <c r="O20" t="s">
+        <v>35</v>
+      </c>
+      <c r="T20" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="U20" s="27"/>
+    </row>
+    <row r="22" spans="10:21" x14ac:dyDescent="0.3">
+      <c r="J22" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="K22" s="20"/>
+      <c r="L22" s="20"/>
+      <c r="M22" s="20"/>
+      <c r="N22" s="20"/>
+      <c r="O22" s="20"/>
+      <c r="P22" s="20"/>
+      <c r="Q22" s="20"/>
+      <c r="R22" s="20"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="19">
+    <mergeCell ref="T15:U15"/>
+    <mergeCell ref="T16:U16"/>
+    <mergeCell ref="T19:U19"/>
+    <mergeCell ref="T20:U20"/>
+    <mergeCell ref="T1:U1"/>
+    <mergeCell ref="T3:U3"/>
+    <mergeCell ref="T5:U5"/>
+    <mergeCell ref="T9:U9"/>
+    <mergeCell ref="T12:U12"/>
+    <mergeCell ref="J22:R22"/>
+    <mergeCell ref="J1:R1"/>
+    <mergeCell ref="J14:R14"/>
+    <mergeCell ref="J18:R18"/>
+    <mergeCell ref="B6:B7"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="A9:D9"/>
     <mergeCell ref="C5:C6"/>
@@ -678,5 +1041,6 @@
     <mergeCell ref="A4:D4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>